--- a/youtube/기초편/TryCatchFinally/Sample.xlsx
+++ b/youtube/기초편/TryCatchFinally/Sample.xlsx
@@ -22,7 +22,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+  <si>
+    <t>Catch</t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -343,14 +347,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A5:F18"/>
+  <dimension ref="A2:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="E3" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+    </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
     </row>
